--- a/INTLINE/data/142/STANOR/07221 Price for existing dwellings.xlsx
+++ b/INTLINE/data/142/STANOR/07221 Price for existing dwellings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>07221: Price for existing dwellings, by quarter, contents, region and type of building</x:t>
   </x:si>
@@ -388,6 +388,12 @@
     <x:t>2021K4</x:t>
   </x:si>
   <x:si>
+    <x:t>2022K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1st quarter 2020 - 1st quarter 2022 were corrected 16.05.2022.</x:t>
+  </x:si>
+  <x:si>
     <x:t>region:</x:t>
   </x:si>
   <x:si>
@@ -400,7 +406,7 @@
     <x:t>Price index for existing dwellings:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220112 08:00</x:t>
+    <x:t>20220516 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -537,7 +543,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -552,6 +558,10 @@
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -849,7 +859,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B172"/>
+  <x:dimension ref="A1:B174"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1787,7 +1797,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="B119" s="3" t="n">
-        <x:v>121.4</x:v>
+        <x:v>121.9</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:2">
@@ -1795,7 +1805,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B120" s="3" t="n">
-        <x:v>123.1</x:v>
+        <x:v>123.6</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:2">
@@ -1803,7 +1813,7 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="B121" s="3" t="n">
-        <x:v>123.5</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:2">
@@ -1811,7 +1821,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B122" s="3" t="n">
-        <x:v>130.4</x:v>
+        <x:v>130.7</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:2">
@@ -1819,7 +1829,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B123" s="3" t="n">
-        <x:v>136.6</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:2">
@@ -1827,7 +1837,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B124" s="3" t="n">
-        <x:v>136.1</x:v>
+        <x:v>136.5</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:2">
@@ -1835,26 +1845,29 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="B125" s="3" t="n">
-        <x:v>133.5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="127" spans="1:2">
-      <x:c r="A127" s="0" t="s">
+        <x:v>133.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:2">
+      <x:c r="A126" s="2" t="s">
         <x:v>124</x:v>
       </x:c>
+      <x:c r="B126" s="3" t="n">
+        <x:v>140.1</x:v>
+      </x:c>
     </x:row>
     <x:row r="128" spans="1:2">
-      <x:c r="A128" s="0" t="s">
+      <x:c r="A128" s="4" t="s">
         <x:v>125</x:v>
       </x:c>
     </x:row>
-    <x:row r="131" spans="1:2">
-      <x:c r="A131" s="0" t="s">
+    <x:row r="129" spans="1:2">
+      <x:c r="A129" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="132" spans="1:2">
-      <x:c r="A132" s="0" t="s">
+    <x:row r="130" spans="1:2">
+      <x:c r="A130" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
     </x:row>
@@ -1863,34 +1876,34 @@
         <x:v>128</x:v>
       </x:c>
     </x:row>
+    <x:row r="134" spans="1:2">
+      <x:c r="A134" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
     <x:row r="135" spans="1:2">
       <x:c r="A135" s="0" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="136" spans="1:2">
-      <x:c r="A136" s="0" t="s">
         <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:2">
+      <x:c r="A137" s="0" t="s">
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:2">
       <x:c r="A138" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="139" spans="1:2">
-      <x:c r="A139" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:2">
       <x:c r="A140" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:2">
       <x:c r="A141" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:2">
@@ -1898,13 +1911,13 @@
         <x:v>134</x:v>
       </x:c>
     </x:row>
+    <x:row r="143" spans="1:2">
+      <x:c r="A143" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
     <x:row r="144" spans="1:2">
       <x:c r="A144" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="1:2">
-      <x:c r="A145" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
     </x:row>
@@ -1913,79 +1926,90 @@
         <x:v>137</x:v>
       </x:c>
     </x:row>
-    <x:row r="150" spans="1:2">
-      <x:c r="A150" s="0" t="s">
+    <x:row r="147" spans="1:2">
+      <x:c r="A147" s="0" t="s">
         <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:2">
+      <x:c r="A148" s="0" t="s">
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:2">
       <x:c r="A152" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="1:2">
-      <x:c r="A153" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:2">
       <x:c r="A154" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:2">
       <x:c r="A155" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:2">
       <x:c r="A156" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:2">
       <x:c r="A157" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:2">
+      <x:c r="A158" s="0" t="s">
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:2">
       <x:c r="A159" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="160" spans="1:2">
-      <x:c r="A160" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:2">
       <x:c r="A161" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="168" spans="1:2">
-      <x:c r="A168" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
     </x:row>
-    <x:row r="169" spans="1:2">
-      <x:c r="A169" s="0" t="s">
+    <x:row r="162" spans="1:2">
+      <x:c r="A162" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:2">
+      <x:c r="A163" s="0" t="s">
         <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="1:2">
+      <x:c r="A170" s="0" t="s">
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:2">
       <x:c r="A171" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="172" spans="1:2">
-      <x:c r="A172" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
     </x:row>
+    <x:row r="173" spans="1:2">
+      <x:c r="A173" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:2">
+      <x:c r="A174" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="1">
+  <x:mergeCells count="2">
     <x:mergeCell ref="A128:B128"/>
+    <x:mergeCell ref="A130:B130"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
